--- a/Immigration/Classement MPQ 2016 par pays et territoires.xlsx
+++ b/Immigration/Classement MPQ 2016 par pays et territoires.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge\GitHub\DataScience\Immigration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jorge.junior\Documents\GitHub\DataScience\Immigration\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="Stats MPQ 2016" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="98">
   <si>
     <t>Pays</t>
   </si>
@@ -302,13 +302,28 @@
   </si>
   <si>
     <t>Date de Submission</t>
+  </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Chili</t>
+  </si>
+  <si>
+    <t>Argentine</t>
+  </si>
+  <si>
+    <t>Kirghizistan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -319,12 +334,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -337,6 +354,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -354,7 +377,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -484,11 +507,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -518,6 +556,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -536,7 +578,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Jorge Luiz Ferreira da Silva junior" refreshedDate="43225.559530902778" refreshedVersion="5" recordCount="71">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Jorge Luiz Ferreira da Silva Junior" refreshedDate="43271.722947916664" refreshedVersion="5" recordCount="71">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D72" sheet="Stats MPQ 2016"/>
   </cacheSource>
@@ -881,7 +923,7 @@
   </r>
   <r>
     <s v="Népal"/>
-    <x v="4"/>
+    <x v="1"/>
     <n v="15"/>
     <d v="2016-06-13T00:00:00"/>
   </r>
@@ -1331,28 +1373,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B124" sqref="B124"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.6640625" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" customWidth="1"/>
-    <col min="8" max="9" width="5.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="18" width="6.6640625" customWidth="1"/>
-    <col min="19" max="20" width="8.6640625" customWidth="1"/>
-    <col min="21" max="25" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.7109375" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" customWidth="1"/>
+    <col min="8" max="9" width="5.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="18" width="6.7109375" customWidth="1"/>
+    <col min="19" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="25" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
@@ -1380,7 +1422,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>9</v>
       </c>
@@ -1408,7 +1450,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
@@ -1422,7 +1464,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1436,7 +1478,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>16</v>
       </c>
@@ -1450,7 +1492,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>17</v>
       </c>
@@ -1464,7 +1506,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>19</v>
       </c>
@@ -1478,7 +1520,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>21</v>
       </c>
@@ -1493,7 +1535,7 @@
       </c>
       <c r="F10" s="15"/>
     </row>
-    <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>22</v>
       </c>
@@ -1507,7 +1549,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>23</v>
       </c>
@@ -1521,7 +1563,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>25</v>
       </c>
@@ -1535,7 +1577,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
@@ -1549,7 +1591,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>27</v>
       </c>
@@ -1563,7 +1605,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>29</v>
       </c>
@@ -1577,7 +1619,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>30</v>
       </c>
@@ -1591,7 +1633,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>33</v>
       </c>
@@ -1605,7 +1647,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>34</v>
       </c>
@@ -1619,7 +1661,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>35</v>
       </c>
@@ -1633,7 +1675,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>36</v>
       </c>
@@ -1647,7 +1689,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1703,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
@@ -1673,7 +1715,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>39</v>
       </c>
@@ -1687,7 +1729,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>40</v>
       </c>
@@ -1701,7 +1743,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>41</v>
       </c>
@@ -1715,7 +1757,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>43</v>
       </c>
@@ -1729,7 +1771,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>44</v>
       </c>
@@ -1743,7 +1785,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>45</v>
       </c>
@@ -1755,7 +1797,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>47</v>
       </c>
@@ -1769,7 +1811,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>48</v>
       </c>
@@ -1781,7 +1823,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -1795,7 +1837,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -1809,7 +1851,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>51</v>
       </c>
@@ -1823,7 +1865,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>52</v>
       </c>
@@ -1837,7 +1879,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>53</v>
       </c>
@@ -1851,7 +1893,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>54</v>
       </c>
@@ -1865,7 +1907,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>55</v>
       </c>
@@ -1879,7 +1921,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>56</v>
       </c>
@@ -1893,7 +1935,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>57</v>
       </c>
@@ -1907,7 +1949,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>58</v>
       </c>
@@ -1921,7 +1963,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>59</v>
       </c>
@@ -1935,7 +1977,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>60</v>
       </c>
@@ -1949,7 +1991,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>61</v>
       </c>
@@ -1963,7 +2005,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>62</v>
       </c>
@@ -1977,7 +2019,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>63</v>
       </c>
@@ -1991,7 +2033,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>64</v>
       </c>
@@ -2003,7 +2045,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>65</v>
       </c>
@@ -2015,7 +2057,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>66</v>
       </c>
@@ -2027,7 +2069,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>67</v>
       </c>
@@ -2039,7 +2081,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>68</v>
       </c>
@@ -2053,7 +2095,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>69</v>
       </c>
@@ -2067,7 +2109,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>70</v>
       </c>
@@ -2081,7 +2123,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>71</v>
       </c>
@@ -2095,7 +2137,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>72</v>
       </c>
@@ -2109,7 +2151,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>73</v>
       </c>
@@ -2121,7 +2163,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>74</v>
       </c>
@@ -2135,7 +2177,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>75</v>
       </c>
@@ -2147,7 +2189,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>76</v>
       </c>
@@ -2161,7 +2203,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>77</v>
       </c>
@@ -2175,7 +2217,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>78</v>
       </c>
@@ -2189,7 +2231,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>79</v>
       </c>
@@ -2201,7 +2243,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>80</v>
       </c>
@@ -2213,7 +2255,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>81</v>
       </c>
@@ -2225,7 +2267,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>82</v>
       </c>
@@ -2239,7 +2281,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>83</v>
       </c>
@@ -2253,7 +2295,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>84</v>
       </c>
@@ -2265,7 +2307,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>85</v>
       </c>
@@ -2277,7 +2319,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>86</v>
       </c>
@@ -2291,7 +2333,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>87</v>
       </c>
@@ -2303,7 +2345,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>88</v>
       </c>
@@ -2317,7 +2359,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>89</v>
       </c>
@@ -2331,7 +2373,7 @@
         <v>42534</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2387,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>7</v>
       </c>
@@ -2359,7 +2401,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>9</v>
       </c>
@@ -2373,7 +2415,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>11</v>
       </c>
@@ -2387,7 +2429,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>14</v>
       </c>
@@ -2401,7 +2443,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>16</v>
       </c>
@@ -2415,7 +2457,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>17</v>
       </c>
@@ -2429,7 +2471,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>19</v>
       </c>
@@ -2443,7 +2485,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>21</v>
       </c>
@@ -2457,7 +2499,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>22</v>
       </c>
@@ -2471,7 +2513,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>23</v>
       </c>
@@ -2485,7 +2527,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>25</v>
       </c>
@@ -2499,7 +2541,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>26</v>
       </c>
@@ -2513,7 +2555,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>27</v>
       </c>
@@ -2527,7 +2569,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>29</v>
       </c>
@@ -2541,7 +2583,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>30</v>
       </c>
@@ -2555,7 +2597,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>33</v>
       </c>
@@ -2569,7 +2611,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>34</v>
       </c>
@@ -2583,7 +2625,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>35</v>
       </c>
@@ -2597,7 +2639,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>36</v>
       </c>
@@ -2611,7 +2653,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>37</v>
       </c>
@@ -2625,7 +2667,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>38</v>
       </c>
@@ -2639,7 +2681,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>39</v>
       </c>
@@ -2653,7 +2695,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>40</v>
       </c>
@@ -2667,7 +2709,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>41</v>
       </c>
@@ -2681,7 +2723,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>43</v>
       </c>
@@ -2695,7 +2737,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>44</v>
       </c>
@@ -2709,7 +2751,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>45</v>
       </c>
@@ -2723,7 +2765,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>47</v>
       </c>
@@ -2737,7 +2779,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>48</v>
       </c>
@@ -2751,7 +2793,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>49</v>
       </c>
@@ -2765,7 +2807,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>50</v>
       </c>
@@ -2779,7 +2821,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>51</v>
       </c>
@@ -2793,7 +2835,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>52</v>
       </c>
@@ -2807,7 +2849,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>53</v>
       </c>
@@ -2821,7 +2863,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>54</v>
       </c>
@@ -2835,7 +2877,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>55</v>
       </c>
@@ -2849,7 +2891,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>56</v>
       </c>
@@ -2863,7 +2905,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>57</v>
       </c>
@@ -2877,7 +2919,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>58</v>
       </c>
@@ -2891,7 +2933,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>59</v>
       </c>
@@ -2905,7 +2947,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>60</v>
       </c>
@@ -2919,7 +2961,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>61</v>
       </c>
@@ -2933,7 +2975,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>62</v>
       </c>
@@ -2947,7 +2989,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>63</v>
       </c>
@@ -2961,7 +3003,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>64</v>
       </c>
@@ -2975,7 +3017,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>65</v>
       </c>
@@ -2989,7 +3031,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>66</v>
       </c>
@@ -3003,7 +3045,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>67</v>
       </c>
@@ -3017,7 +3059,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>68</v>
       </c>
@@ -3031,7 +3073,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>69</v>
       </c>
@@ -3045,7 +3087,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>70</v>
       </c>
@@ -3057,7 +3099,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>71</v>
       </c>
@@ -3071,7 +3113,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>72</v>
       </c>
@@ -3085,7 +3127,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>73</v>
       </c>
@@ -3099,7 +3141,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>74</v>
       </c>
@@ -3113,7 +3155,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>75</v>
       </c>
@@ -3127,7 +3169,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>76</v>
       </c>
@@ -3139,7 +3181,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>77</v>
       </c>
@@ -3151,7 +3193,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>78</v>
       </c>
@@ -3163,7 +3205,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>79</v>
       </c>
@@ -3177,7 +3219,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>80</v>
       </c>
@@ -3191,7 +3233,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>81</v>
       </c>
@@ -3205,7 +3247,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>82</v>
       </c>
@@ -3217,7 +3259,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>83</v>
       </c>
@@ -3229,7 +3271,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>84</v>
       </c>
@@ -3243,7 +3285,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>85</v>
       </c>
@@ -3257,7 +3299,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>86</v>
       </c>
@@ -3269,7 +3311,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>87</v>
       </c>
@@ -3283,7 +3325,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>88</v>
       </c>
@@ -3295,7 +3337,7 @@
         <v>42598</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="5" t="s">
         <v>89</v>
       </c>
@@ -3306,6 +3348,65 @@
       <c r="D143" s="18">
         <v>42598</v>
       </c>
+    </row>
+    <row r="144" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B144" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C144" s="23">
+        <v>1</v>
+      </c>
+      <c r="D144" s="17">
+        <v>42534</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B145" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="D145" s="17">
+        <v>42534</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="D146" s="17">
+        <v>42534</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B147" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" s="17">
+        <v>42534</v>
+      </c>
+    </row>
+    <row r="1048576" spans="2:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1048576" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3321,30 +3422,30 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="19" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>6</v>
       </c>
@@ -3352,15 +3453,15 @@
         <v>980</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="21">
-        <v>1597</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>12</v>
       </c>
@@ -3368,7 +3469,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>10</v>
       </c>
@@ -3376,15 +3477,15 @@
         <v>903</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="21">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>20</v>
       </c>
@@ -3392,7 +3493,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
@@ -3400,7 +3501,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
@@ -3408,7 +3509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>91</v>
       </c>
@@ -3416,12 +3517,12 @@
         <v>5384</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1</v>
       </c>
@@ -3435,7 +3536,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>10</v>
       </c>
@@ -3450,7 +3551,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>13</v>
       </c>
@@ -3465,7 +3566,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>15</v>
       </c>
@@ -3480,7 +3581,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -3495,7 +3596,7 @@
         <v>3092</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>18</v>
       </c>
@@ -3510,7 +3611,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -3525,7 +3626,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>12</v>
       </c>
@@ -3540,7 +3641,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>6</v>
       </c>
@@ -3555,7 +3656,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>42</v>
       </c>
@@ -3568,7 +3669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>24</v>
       </c>
@@ -3585,7 +3686,7 @@
         <v>10255</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="11" t="s">
         <v>46</v>
       </c>

--- a/Immigration/Classement MPQ 2016 par pays et territoires.xlsx
+++ b/Immigration/Classement MPQ 2016 par pays et territoires.xlsx
@@ -17,13 +17,13 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="7" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="98">
   <si>
     <t>Pays</t>
   </si>
@@ -304,9 +304,6 @@
     <t>Date de Submission</t>
   </si>
   <si>
-    <t>ST</t>
-  </si>
-  <si>
     <t>Panama</t>
   </si>
   <si>
@@ -317,6 +314,9 @@
   </si>
   <si>
     <t>Kirghizistan</t>
+  </si>
+  <si>
+    <t>Equateur</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -560,6 +560,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,7 +579,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Jorge Luiz Ferreira da Silva Junior" refreshedDate="43271.722947916664" refreshedVersion="5" recordCount="71">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Jorge Luiz Ferreira da Silva Junior" refreshedDate="43279.500866203707" refreshedVersion="5" recordCount="71">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:D72" sheet="Stats MPQ 2016"/>
   </cacheSource>
@@ -1045,7 +1046,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Stats MPQ 2016" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="5" showHeaders="0" compact="0" compactData="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Stats MPQ 2016" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="5" showHeaders="0" compact="0" compactData="0">
   <location ref="A3:B12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField name="Pays" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
@@ -1375,14 +1376,14 @@
   </sheetPr>
   <dimension ref="A1:F1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B152" sqref="B152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="8.7109375" customWidth="1"/>
@@ -2006,7 +2007,7 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="25" t="s">
         <v>62</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -3351,10 +3352,10 @@
     </row>
     <row r="144" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B144" s="23" t="s">
         <v>93</v>
+      </c>
+      <c r="B144" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C144" s="23">
         <v>1</v>
@@ -3365,10 +3366,10 @@
     </row>
     <row r="145" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B145" s="23" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="B145" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -3379,10 +3380,10 @@
     </row>
     <row r="146" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B146" s="23" t="s">
-        <v>93</v>
+        <v>95</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -3393,15 +3394,29 @@
     </row>
     <row r="147" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="B147" s="23" t="s">
-        <v>93</v>
+        <v>96</v>
+      </c>
+      <c r="B147" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C147">
         <v>1</v>
       </c>
       <c r="D147" s="17">
+        <v>42534</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B148" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C148">
+        <v>1</v>
+      </c>
+      <c r="D148" s="17">
         <v>42534</v>
       </c>
     </row>
